--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2097108.851868362</v>
+        <v>-2099106.524881206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>259.0909932163396</v>
+        <v>47.4505575433169</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>49.42344154899249</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>10.54685655997483</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1060804925964089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100.8330673628372</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>152.1438453863132</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>145.0714343917597</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>68.19029374363566</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.823136147223</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>18.79385811784997</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609376</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.21854402607428</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>38.96366008205911</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037943</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.6705608341703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>223.098012094882</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>230.4725532577058</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>170.4308309034742</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>107.8788567243382</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.85690298803334</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373652</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,19 +2530,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857129</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2050.019976259699</v>
+        <v>1358.763040602196</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.057459319287</v>
+        <v>1358.763040602196</v>
       </c>
       <c r="D2" t="n">
-        <v>1322.791760712536</v>
+        <v>1000.497341995446</v>
       </c>
       <c r="E2" t="n">
-        <v>937.0035081142921</v>
+        <v>1000.497341995446</v>
       </c>
       <c r="F2" t="n">
-        <v>675.2954341583935</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>257.3316260565804</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2686.495700553601</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2432.733915191693</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2101.671027848122</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1748.902372578008</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1748.902372578008</v>
       </c>
       <c r="Y2" t="n">
-        <v>2050.019976259699</v>
+        <v>1358.763040602196</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.956448217093</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.6049130473327</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4725825998845</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.211754639818</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>942.0724226640064</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4626,34 +4626,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R7" t="n">
-        <v>581.5921817905153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S7" t="n">
-        <v>581.5921817905153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T7" t="n">
-        <v>354.283994459117</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>2628.270006428691</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>2628.270006428691</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>2338.852836391731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1964.838184214438</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2623.13670648018</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.346402544967</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>705.6860104427228</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>416.5124000972908</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
         <v>891.4406401619858</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.3990000507114</v>
+        <v>865.4928396191511</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>696.5566566912443</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>546.4400172789085</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>398.5269236965154</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>398.5269236965154</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909232</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909232</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033453</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033453</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>909.3712637033453</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.0474648809511</v>
+        <v>1047.141304449391</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
@@ -5279,22 +5279,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.7235151749151</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>784.5160943184452</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>784.5160943184452</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X16" t="n">
-        <v>784.5160943184452</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.7235151749151</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>3868.719718289457</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>3868.719718289457</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>3718.603078877121</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S19" t="n">
-        <v>1215.688812671774</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T19" t="n">
-        <v>991.90339746128</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U19" t="n">
-        <v>991.90339746128</v>
+        <v>4640.810927430321</v>
       </c>
       <c r="V19" t="n">
-        <v>737.2189092553931</v>
+        <v>4386.126439224435</v>
       </c>
       <c r="W19" t="n">
-        <v>447.8017392184324</v>
+        <v>4096.709269187474</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>3868.719718289457</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>3868.719718289457</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>427.726883381638</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>609.3753482118777</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
         <v>394.6863306254957</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6364,22 +6364,22 @@
         <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6452,10 +6452,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6464,19 +6464,19 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6646,7 +6646,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
@@ -6664,7 +6664,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6680,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>816.7950850315617</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083194</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7099,10 +7099,10 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,25 +7196,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
@@ -7330,28 +7330,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>360.5026862907258</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>32.78140656352411</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2863157167183</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>285.1031356539339</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>147.7850525253719</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.901463797683</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>127.5299083813185</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>54.91409251792453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>29.03963122894604</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>56.05044507888516</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>27.48997908012907</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>178.3584956742392</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>135.3899181105945</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1350885.617004505</v>
+        <v>1350885.617004506</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1350885.617004506</v>
+        <v>1350885.617004505</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564043</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
@@ -26320,40 +26320,40 @@
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>39102.90597377088</v>
+      </c>
+      <c r="F2" t="n">
         <v>39102.90597377087</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39102.90597377089</v>
       </c>
       <c r="G2" t="n">
         <v>39102.90597377086</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377089</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321423</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321423</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="O2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.39482819111</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819124</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26491,22 +26491,22 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752952.5614271403</v>
+        <v>-753165.9734170187</v>
       </c>
       <c r="C6" t="n">
         <v>-207439.8573567197</v>
@@ -26528,22 +26528,22 @@
         <v>-207439.8573567197</v>
       </c>
       <c r="E6" t="n">
-        <v>-600219.0640387126</v>
+        <v>-600316.5231646847</v>
       </c>
       <c r="F6" t="n">
-        <v>-75059.02756181645</v>
+        <v>-75156.48668778862</v>
       </c>
       <c r="G6" t="n">
-        <v>-75059.0275618165</v>
+        <v>-75156.48668778864</v>
       </c>
       <c r="H6" t="n">
-        <v>-75059.02756181646</v>
+        <v>-75156.48668778864</v>
       </c>
       <c r="I6" t="n">
-        <v>-155761.9242587148</v>
+        <v>-155761.9242587149</v>
       </c>
       <c r="J6" t="n">
-        <v>-277679.6313475954</v>
+        <v>-277679.6313475952</v>
       </c>
       <c r="K6" t="n">
         <v>-101256.4121550024</v>
@@ -26552,10 +26552,10 @@
         <v>-101256.4121550024</v>
       </c>
       <c r="M6" t="n">
-        <v>-236057.4273888395</v>
+        <v>-236057.4273888397</v>
       </c>
       <c r="N6" t="n">
-        <v>-155761.9242587148</v>
+        <v>-155761.9242587149</v>
       </c>
       <c r="O6" t="n">
         <v>-101256.4121550024</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26759,22 +26759,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>359.4254881983945</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>274.4993312153646</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.4785728594984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>281.0973027094246</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>217.5872552921558</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>1.59375758839812</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>218.0915804983421</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>314.9107055162576</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>197.6544622398078</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>82.85718120047541</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>202.81656143201</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,31 +33585,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,31 +33822,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,31 +34059,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,31 +34296,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>609.76039124675</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>365.975979961537</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>451.6500179578265</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,7 +36528,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414414</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>534.3608406099581</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,13 +37233,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,13 +37944,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
